--- a/CAPM Event Time Porfolio/results.xlsx
+++ b/CAPM Event Time Porfolio/results.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Humzah\Documents\GitHub\QuantResearch\CAPM Event Time Porfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE53EA2A-F5D8-4401-BD32-D0B0FEC34E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D6CD3-91CC-4999-AF66-BA206BCDDA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="output" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="not forcing intercept" sheetId="1" r:id="rId1"/>
+    <sheet name="forcing intercept" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>betas1</t>
   </si>
@@ -57,6 +57,54 @@
   </si>
   <si>
     <t>250 stocks window 1512</t>
+  </si>
+  <si>
+    <t>Slope: 0.2014</t>
+  </si>
+  <si>
+    <t>Standard Error: 0.0592</t>
+  </si>
+  <si>
+    <t>p-value: 0.0078</t>
+  </si>
+  <si>
+    <t>Slope: 0.1989</t>
+  </si>
+  <si>
+    <t>Standard Error: 0.1657</t>
+  </si>
+  <si>
+    <t>p-value: 0.2608</t>
+  </si>
+  <si>
+    <t>red line</t>
+  </si>
+  <si>
+    <t>Slope: 0.2860</t>
+  </si>
+  <si>
+    <t>Standard Error: 0.1425</t>
+  </si>
+  <si>
+    <t>p-value: 0.0756</t>
+  </si>
+  <si>
+    <t>Slope: 0.2501</t>
+  </si>
+  <si>
+    <t>Standard Error: 0.0616</t>
+  </si>
+  <si>
+    <t>p-value: 0.0028</t>
+  </si>
+  <si>
+    <t>100 stocks window 2520</t>
+  </si>
+  <si>
+    <t>500 stocks window 2520</t>
+  </si>
+  <si>
+    <t>100 stock, 1512 size</t>
   </si>
 </sst>
 </file>
@@ -380,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -495,6 +543,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -540,11 +614,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -712,9 +788,60 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3994911499572304E-2"/>
+                  <c:y val="-7.0749489647127439E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>output!$A$3:$A$12</c:f>
+              <c:f>'not forcing intercept'!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -753,7 +880,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>output!$B$3:$B$12</c:f>
+              <c:f>'not forcing intercept'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1094,506 +1221,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Event Month</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Portfolios, </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Slope</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>=</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>0.3362, SE=0.0566 </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>output!$C$3:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.18082631233044599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29616453462458903</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29615400939862802</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.27067639367257201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.34609160638401099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20370508645362601</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.127769578934396</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.24265400292283101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.5010582218518099E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.246162342075749</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>output!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6.3058374856660299E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.71069624354364E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.106534004634046</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.6342344209056098E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.1455250816650296E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.1221512242030206E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15434564287284999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3575777427919398E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.2915939853917399E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.08223435454494E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5672-452B-A86E-3012EFCB7863}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1621699056"/>
-        <c:axId val="1250723568"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1621699056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Portfolio Beta</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1250723568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1250723568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Portfolio Mean Return</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1621699056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1668,80 +1296,125 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>output!$A$20:$A$29</c:f>
+              <c:f>'forcing intercept'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-8.53100135804023E-2</c:v>
+                  <c:v>0.27077665301562398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.29923111682508E-2</c:v>
+                  <c:v>0.39222968933174901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.4343999055854694E-2</c:v>
+                  <c:v>0.41789656840133999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.196540139710871</c:v>
+                  <c:v>0.38318950270000302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8518695087867299E-2</c:v>
+                  <c:v>0.27127931893172103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5656814159494201E-2</c:v>
+                  <c:v>0.27801831012440698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9034571987809402E-2</c:v>
+                  <c:v>0.209266017322045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.30982656869308E-2</c:v>
+                  <c:v>0.45913352604901497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37697154452850701</c:v>
+                  <c:v>0.16339598975400199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.13900132376657101</c:v>
+                  <c:v>0.26605476232556902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>output!$B$20:$B$29</c:f>
+              <c:f>'forcing intercept'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.5915584854319799E-2</c:v>
+                  <c:v>6.5402818124489906E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3678469356948305E-2</c:v>
+                  <c:v>0.117160285036171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.62153213917823E-2</c:v>
+                  <c:v>8.7400903728885607E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0952969775625303E-2</c:v>
+                  <c:v>0.102711404886699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.106061548212541</c:v>
+                  <c:v>7.4072362092250807E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9504608565796201E-2</c:v>
+                  <c:v>5.724931643812E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10909953728225601</c:v>
+                  <c:v>0.134082452478061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7428606689762304E-2</c:v>
+                  <c:v>8.89448985914644E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5476078141734601E-2</c:v>
+                  <c:v>7.6243381716952899E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9834722904261399E-2</c:v>
+                  <c:v>4.2600121666513502E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,7 +1422,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3243-4A2B-881C-82D49A73A9AF}"/>
+              <c16:uniqueId val="{00000000-5A6B-4CBB-84AB-3D1F6FE1F7AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1761,11 +1434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091766495"/>
-        <c:axId val="2061980095"/>
+        <c:axId val="1801475168"/>
+        <c:axId val="1661506976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091766495"/>
+        <c:axId val="1801475168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,12 +1495,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061980095"/>
+        <c:crossAx val="1661506976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2061980095"/>
+        <c:axId val="1661506976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,7 +1557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091766495"/>
+        <c:crossAx val="1801475168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1940,7 +1613,3854 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'forcing intercept'!$A$18:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17971991859026901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.109927146516198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23958519267131401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4966522903071393E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.234553986384338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.7697117038626797E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37469476615002101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38163337849961598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13473154365576401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38930707844936102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'forcing intercept'!$B$18:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.8523125295547197E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3178639546949603E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5423776039220698E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9970105070109002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12827917382486301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7699288680988003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.109429106614198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2629776703319202E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2854486510314097E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.109498956498721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-74D2-4710-87B1-B872EB4BED12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1798187136"/>
+        <c:axId val="1151597760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1798187136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151597760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1151597760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1798187136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'forcing intercept'!$C$18:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.271383292836259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.195264757637128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16817226138605701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26994412703147302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18768774826128101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.106717306931998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39348353252328699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42691898421902202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.410951069061401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48497136425256898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'forcing intercept'!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0430081647944107E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5298883216677007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0603567187543598E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5680442436514798E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7395562050187494E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.106395247985835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4832769587422594E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.112034556087349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3041453595406703E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4026406478169304E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D0AC-4805-8960-F1FA7025EF06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1798187136"/>
+        <c:axId val="1151597760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1798187136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151597760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1151597760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1798187136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Event Month Portfolios, Slope=0.3362, SE=0.0566 </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.2058349585706408E-2"/>
+                  <c:y val="-5.1662656751239426E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18082631233044599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29616453462458903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29615400939862802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27067639367257201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34609160638401099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20370508645362601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.127769578934396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24265400292283101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5010582218518099E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.246162342075749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.3058374856660299E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.71069624354364E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.106534004634046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6342344209056098E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1455250816650296E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1221512242030206E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15434564287284999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3575777427919398E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2915939853917399E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.08223435454494E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F457-4F30-B03D-07C52A2B6F59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1151378960"/>
+        <c:axId val="1250723072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1151378960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250723072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1250723072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Mean Return</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151378960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-8.53100135804023E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.29923111682508E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.4343999055854694E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.196540139710871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8518695087867299E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5656814159494201E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9034571987809402E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.30982656869308E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37697154452850701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13900132376657101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$B$20:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.5915584854319799E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3678469356948305E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.62153213917823E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0952969775625303E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.106061548212541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9504608565796201E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10909953728225601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7428606689762304E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5476078141734601E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9834722904261399E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1B8-4FFD-A058-B6BDE9D25514}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1151378960"/>
+        <c:axId val="1250723072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1151378960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250723072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1250723072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Mean Return</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151378960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1793477690288714"/>
+                  <c:y val="-6.5507436570428693E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$C$20:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.8384825821894599E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17602327760622999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.220764855308896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.181220790715339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20506861066322499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1280573964653805E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14069201284371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43898739242344198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15981101582106799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35628990768449897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$D$20:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.7980559774188001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.100363324789683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.101780393536597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.110894122432939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1279391704356298E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7125363253960401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7180054072678296E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2685376563950697E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1379173977395497E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.6623324407471598E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF5A-427C-A8ED-329A74E054A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1151378960"/>
+        <c:axId val="1250723072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1151378960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250723072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1250723072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Mean Return</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151378960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3985345581802275E-2"/>
+                  <c:y val="-6.5371828521434819E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$A$60:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-2.2038422838522701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.98835588224876E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15666750036129501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4434251209107797E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.28579609809983E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.7344154580522999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.117163525664254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28213763769917599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30562868234900298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4047279516543799E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$B$60:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.4354678562370801E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5517624887703999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6556875634229998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9364904587561999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10535249094496001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9520514253998498E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4180975028151995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3127118307545206E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5686006235196102E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9114083302194503E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-755F-42B8-9027-9C28A617CAF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1151378960"/>
+        <c:axId val="1250723072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1151378960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250723072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1250723072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Mean Return</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151378960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8495188101487313E-2"/>
+                  <c:y val="-1.7144940215806356E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$C$60:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.7480090169562199E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.155568191974744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27803437645567097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34361635512830202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2572286391034195E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34816263923228802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.149469925296079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.267088776930062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26744825359542101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50679386017842898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$D$60:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.7707047538326404E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7133092272702796E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9669733876024306E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8559915491826601E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.106695287149532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10600445599613301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9399917371557698E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3714029735316104E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8966317944008502E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19941995464079E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC00-4AD8-8049-EEABEEE6FD7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1151378960"/>
+        <c:axId val="1250723072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1151378960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250723072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1250723072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Mean Return</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151378960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11069400699912511"/>
+                  <c:y val="-3.8282298046077572E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$A$38:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.0020834351829602E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3096925669982294E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4105620919082498E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0107568855052801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12512802416038399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15220110564123601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24894565283927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.349053595577826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.7734751824407199E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28806649503667903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$B$38:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.2311537100514897E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5624643326108399E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6093277448315904E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.101720119684831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.120467982305934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4952462560766398E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6254041825472E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6445252609391395E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.120100424870939</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.118186660814738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F691-44F6-8898-09272A88BB09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1151378960"/>
+        <c:axId val="1250723072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1151378960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250723072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1250723072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Mean Return</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151378960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.343460192475941E-2"/>
+                  <c:y val="-6.240886555847186E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$C$38:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15393813689433999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18967200719840199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9382803645995399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21969790143145401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.2744344320691993E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13780596822494001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.244615595813193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32671507078016598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37938311767394101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43317104575405702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'not forcing intercept'!$D$38:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.2021455021171901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4846877806310205E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4238526982185795E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7670861818112493E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8278201629380794E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6082292610008405E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.113556931764248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8448620367820696E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6301974174495196E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5909902653500899E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A09-4412-AA45-BF94F5730810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1151378960"/>
+        <c:axId val="1250723072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1151378960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250723072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1250723072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Portfolio Mean Return</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151378960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2015,80 +5535,125 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>output!$C$20:$C$29</c:f>
+              <c:f>'forcing intercept'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.8384825821894599E-2</c:v>
+                  <c:v>0.14081035603251801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17602327760622999</c:v>
+                  <c:v>0.13143391087834899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.220764855308896</c:v>
+                  <c:v>0.23452698275950001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.181220790715339</c:v>
+                  <c:v>0.190987967690846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20506861066322499</c:v>
+                  <c:v>0.219498732658193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1280573964653805E-2</c:v>
+                  <c:v>0.122168639332489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14069201284371</c:v>
+                  <c:v>6.7774209248501999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43898739242344198</c:v>
+                  <c:v>0.31293507337457699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15981101582106799</c:v>
+                  <c:v>0.174262929420305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35628990768449897</c:v>
+                  <c:v>0.36571397384146698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>output!$D$20:$D$29</c:f>
+              <c:f>'forcing intercept'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.7980559774188001E-2</c:v>
+                  <c:v>8.2135042150923501E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.100363324789683</c:v>
+                  <c:v>4.1206189363961997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.101780393536597</c:v>
+                  <c:v>9.1772976184372301E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.110894122432939</c:v>
+                  <c:v>8.7394405904210604E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1279391704356298E-2</c:v>
+                  <c:v>0.11792992448969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7125363253960401E-2</c:v>
+                  <c:v>7.4226652786003197E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7180054072678296E-2</c:v>
+                  <c:v>9.5179992682936199E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2685376563950697E-2</c:v>
+                  <c:v>0.111694015749945</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1379173977395497E-2</c:v>
+                  <c:v>7.6922441402072994E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.6623324407471598E-2</c:v>
+                  <c:v>9.4846581461990098E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2096,7 +5661,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E6F5-4BF6-9B73-DC9EBCF94834}"/>
+              <c16:uniqueId val="{00000000-91A8-42B0-9F79-57B82BFC9022}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2108,11 +5673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097661663"/>
-        <c:axId val="2068289647"/>
+        <c:axId val="1798187136"/>
+        <c:axId val="1151597760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097661663"/>
+        <c:axId val="1798187136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,12 +5734,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068289647"/>
+        <c:crossAx val="1151597760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2068289647"/>
+        <c:axId val="1151597760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +5796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097661663"/>
+        <c:crossAx val="1798187136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2368,46 +5933,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3995,522 +7520,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4588,15 +7597,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>270062</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>55469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>574862</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>131669</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4624,15 +7633,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
+      <xdr:colOff>47438</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>65555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
+      <xdr:colOff>352238</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>141755</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4640,6 +7649,343 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500B29B8-001B-BFEE-6A48-DBE9E51774D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5918D344-AC01-7C0B-CF10-62F197A2B135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D4ADA7-D12F-D8E5-777B-CAE07B064A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>296618</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>179350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>596899</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>2064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672F1860-B3D0-4A62-822A-A1DD88C7BC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11879018" y="10466350"/>
+          <a:ext cx="4567481" cy="3442214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25ABD5BD-973A-D204-6B02-C1BF3D0A91EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8D6C20-309E-45E0-0D1D-6B0A77F8AF7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D600B6-F30D-E34A-286D-E82A4B35F773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E92170-6FCF-1E6E-4964-2EDEA0CD277B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C59E10-F480-6DBB-EA0F-905365694A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E77262F-6D94-EAC4-CC34-8B1E19BE43F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4957,10 +8303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,7 +8629,7 @@
         <v>-2.6623324407471598E-2</v>
       </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>5</v>
       </c>
@@ -5291,7 +8637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
@@ -5299,12 +8645,385 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6.0020834351829602E-2</v>
+      </c>
+      <c r="B38">
+        <v>7.2311537100514897E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.15393813689433999</v>
+      </c>
+      <c r="D38">
+        <v>6.2021455021171901E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8.3096925669982294E-2</v>
+      </c>
+      <c r="B39">
+        <v>5.5624643326108399E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.18967200719840199</v>
+      </c>
+      <c r="D39">
+        <v>7.4846877806310205E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5.4105620919082498E-2</v>
+      </c>
+      <c r="B40">
+        <v>6.6093277448315904E-2</v>
+      </c>
+      <c r="C40">
+        <v>4.9382803645995399E-2</v>
+      </c>
+      <c r="D40">
+        <v>6.4238526982185795E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3.0107568855052801E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.101720119684831</v>
+      </c>
+      <c r="C41">
+        <v>0.21969790143145401</v>
+      </c>
+      <c r="D41">
+        <v>6.7670861818112493E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.12512802416038399</v>
+      </c>
+      <c r="B42">
+        <v>0.120467982305934</v>
+      </c>
+      <c r="C42">
+        <v>-9.2744344320691993E-2</v>
+      </c>
+      <c r="D42">
+        <v>6.8278201629380794E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-0.15220110564123601</v>
+      </c>
+      <c r="B43">
+        <v>8.4952462560766398E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.13780596822494001</v>
+      </c>
+      <c r="D43">
+        <v>9.6082292610008405E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.24894565283927</v>
+      </c>
+      <c r="B44">
+        <v>8.6254041825472E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.244615595813193</v>
+      </c>
+      <c r="D44">
+        <v>0.113556931764248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.349053595577826</v>
+      </c>
+      <c r="B45">
+        <v>6.6445252609391395E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.32671507078016598</v>
+      </c>
+      <c r="D45">
+        <v>8.8448620367820696E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-3.7734751824407199E-2</v>
+      </c>
+      <c r="B46">
+        <v>0.120100424870939</v>
+      </c>
+      <c r="C46">
+        <v>0.37938311767394101</v>
+      </c>
+      <c r="D46">
+        <v>6.6301974174495196E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.28806649503667903</v>
+      </c>
+      <c r="B47">
+        <v>0.118186660814738</v>
+      </c>
+      <c r="C47">
+        <v>0.43317104575405702</v>
+      </c>
+      <c r="D47">
+        <v>6.5909902653500899E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-2.2038422838522701E-2</v>
+      </c>
+      <c r="B60">
+        <v>6.4354678562370801E-2</v>
+      </c>
+      <c r="C60">
+        <v>7.7480090169562199E-2</v>
+      </c>
+      <c r="D60">
+        <v>6.7707047538326404E-2</v>
+      </c>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="3"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-4.98835588224876E-2</v>
+      </c>
+      <c r="B61">
+        <v>7.5517624887703999E-2</v>
+      </c>
+      <c r="C61">
+        <v>0.155568191974744</v>
+      </c>
+      <c r="D61">
+        <v>6.7133092272702796E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.15666750036129501</v>
+      </c>
+      <c r="B62">
+        <v>7.6556875634229998E-2</v>
+      </c>
+      <c r="C62">
+        <v>0.27803437645567097</v>
+      </c>
+      <c r="D62">
+        <v>6.9669733876024306E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9.4434251209107797E-2</v>
+      </c>
+      <c r="B63">
+        <v>7.9364904587561999E-2</v>
+      </c>
+      <c r="C63">
+        <v>0.34361635512830202</v>
+      </c>
+      <c r="D63">
+        <v>7.8559915491826601E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2.28579609809983E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.10535249094496001</v>
+      </c>
+      <c r="C64">
+        <v>9.2572286391034195E-2</v>
+      </c>
+      <c r="D64">
+        <v>0.106695287149532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-5.7344154580522999E-2</v>
+      </c>
+      <c r="B65">
+        <v>8.9520514253998498E-2</v>
+      </c>
+      <c r="C65">
+        <v>0.34816263923228802</v>
+      </c>
+      <c r="D65">
+        <v>0.10600445599613301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-0.117163525664254</v>
+      </c>
+      <c r="B66">
+        <v>9.4180975028151995E-2</v>
+      </c>
+      <c r="C66">
+        <v>0.149469925296079</v>
+      </c>
+      <c r="D66">
+        <v>5.9399917371557698E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.28213763769917599</v>
+      </c>
+      <c r="B67">
+        <v>9.3127118307545206E-2</v>
+      </c>
+      <c r="C67">
+        <v>0.267088776930062</v>
+      </c>
+      <c r="D67">
+        <v>9.3714029735316104E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.30562868234900298</v>
+      </c>
+      <c r="B68">
+        <v>5.5686006235196102E-2</v>
+      </c>
+      <c r="C68">
+        <v>0.26744825359542101</v>
+      </c>
+      <c r="D68">
+        <v>2.8966317944008502E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2.4047279516543799E-2</v>
+      </c>
+      <c r="B69">
+        <v>5.9114083302194503E-2</v>
+      </c>
+      <c r="C69">
+        <v>0.50679386017842898</v>
+      </c>
+      <c r="D69">
+        <v>1.19941995464079E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5315,14 +9034,329 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601D5753-91CB-42CA-8498-743E7DB9C743}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:D11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.14081035603251801</v>
+      </c>
+      <c r="B2">
+        <v>8.2135042150923501E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.27077665301562398</v>
+      </c>
+      <c r="D2">
+        <v>6.5402818124489906E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.13143391087834899</v>
+      </c>
+      <c r="B3">
+        <v>4.1206189363961997E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.39222968933174901</v>
+      </c>
+      <c r="D3">
+        <v>0.117160285036171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.23452698275950001</v>
+      </c>
+      <c r="B4">
+        <v>9.1772976184372301E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.41789656840133999</v>
+      </c>
+      <c r="D4">
+        <v>8.7400903728885607E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.190987967690846</v>
+      </c>
+      <c r="B5">
+        <v>8.7394405904210604E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.38318950270000302</v>
+      </c>
+      <c r="D5">
+        <v>0.102711404886699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.219498732658193</v>
+      </c>
+      <c r="B6">
+        <v>0.11792992448969</v>
+      </c>
+      <c r="C6">
+        <v>0.27127931893172103</v>
+      </c>
+      <c r="D6">
+        <v>7.4072362092250807E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.122168639332489</v>
+      </c>
+      <c r="B7">
+        <v>7.4226652786003197E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.27801831012440698</v>
+      </c>
+      <c r="D7">
+        <v>5.724931643812E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6.7774209248501999E-2</v>
+      </c>
+      <c r="B8">
+        <v>9.5179992682936199E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.209266017322045</v>
+      </c>
+      <c r="D8">
+        <v>0.134082452478061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.31293507337457699</v>
+      </c>
+      <c r="B9">
+        <v>0.111694015749945</v>
+      </c>
+      <c r="C9">
+        <v>0.45913352604901497</v>
+      </c>
+      <c r="D9">
+        <v>8.89448985914644E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.174262929420305</v>
+      </c>
+      <c r="B10">
+        <v>7.6922441402072994E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.16339598975400199</v>
+      </c>
+      <c r="D10">
+        <v>7.6243381716952899E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.36571397384146698</v>
+      </c>
+      <c r="B11">
+        <v>9.4846581461990098E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.26605476232556902</v>
+      </c>
+      <c r="D11">
+        <v>4.2600121666513502E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.17971991859026901</v>
+      </c>
+      <c r="B18">
+        <v>7.8523125295547197E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.271383292836259</v>
+      </c>
+      <c r="D18">
+        <v>7.0430081647944107E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.109927146516198</v>
+      </c>
+      <c r="B19">
+        <v>5.3178639546949603E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.195264757637128</v>
+      </c>
+      <c r="D19">
+        <v>7.5298883216677007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.23958519267131401</v>
+      </c>
+      <c r="B20">
+        <v>9.5423776039220698E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.16817226138605701</v>
+      </c>
+      <c r="D20">
+        <v>7.0603567187543598E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.4966522903071393E-2</v>
+      </c>
+      <c r="B21">
+        <v>7.9970105070109002E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.26994412703147302</v>
+      </c>
+      <c r="D21">
+        <v>4.5680442436514798E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.234553986384338</v>
+      </c>
+      <c r="B22">
+        <v>0.12827917382486301</v>
+      </c>
+      <c r="C22">
+        <v>0.18768774826128101</v>
+      </c>
+      <c r="D22">
+        <v>7.7395562050187494E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-6.7697117038626797E-2</v>
+      </c>
+      <c r="B23">
+        <v>5.7699288680988003E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.106717306931998</v>
+      </c>
+      <c r="D23">
+        <v>0.106395247985835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.37469476615002101</v>
+      </c>
+      <c r="B24">
+        <v>0.109429106614198</v>
+      </c>
+      <c r="C24">
+        <v>0.39348353252328699</v>
+      </c>
+      <c r="D24">
+        <v>9.4832769587422594E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.38163337849961598</v>
+      </c>
+      <c r="B25">
+        <v>7.2629776703319202E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.42691898421902202</v>
+      </c>
+      <c r="D25">
+        <v>0.112034556087349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.13473154365576401</v>
+      </c>
+      <c r="B26">
+        <v>9.2854486510314097E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.410951069061401</v>
+      </c>
+      <c r="D26">
+        <v>4.3041453595406703E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.38930707844936102</v>
+      </c>
+      <c r="B27">
+        <v>0.109498956498721</v>
+      </c>
+      <c r="C27">
+        <v>0.48497136425256898</v>
+      </c>
+      <c r="D27">
+        <v>6.4026406478169304E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>